--- a/Self Quantification/DATE_AMOUNT.xlsx
+++ b/Self Quantification/DATE_AMOUNT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSAPP\3. FALL 2020\0. DATA VISUALISATION\4. INDESIGN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoHee\Documents\GitHub\jl5639.github.io\Self Quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C138489-9446-4DB3-ACB5-E797C7CD66C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90DB1B-4171-4F74-91B4-44D56C1B7F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F311655-BC54-41C7-9021-3BA559AC24BC}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{4F311655-BC54-41C7-9021-3BA559AC24BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>DATE</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>AMOUNT</t>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
